--- a/results/epsilon/tictactoe/normal/TicTacToeNormal_EpsilonResults_Wins_Comparison_Test.xlsx
+++ b/results/epsilon/tictactoe/normal/TicTacToeNormal_EpsilonResults_Wins_Comparison_Test.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Win Rates" sheetId="1" r:id="rId1"/>
     <sheet name="Graph" sheetId="2" r:id="rId2"/>
     <sheet name="Graph (no title)" sheetId="3" r:id="rId3"/>
+    <sheet name="Wide Graph (no title)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -139,7 +140,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4678,11 +4678,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223437568"/>
-        <c:axId val="223439488"/>
+        <c:axId val="171934848"/>
+        <c:axId val="171936768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223437568"/>
+        <c:axId val="171934848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4704,14 +4704,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223439488"/>
+        <c:crossAx val="171936768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4721,7 +4720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223439488"/>
+        <c:axId val="171936768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4745,21 +4744,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223437568"/>
+        <c:crossAx val="171934848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9324,11 +9321,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="197838720"/>
-        <c:axId val="197844992"/>
+        <c:axId val="225154560"/>
+        <c:axId val="225156096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197838720"/>
+        <c:axId val="225154560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9338,7 +9335,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197844992"/>
+        <c:crossAx val="225156096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9348,7 +9345,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197844992"/>
+        <c:axId val="225156096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9360,7 +9357,4615 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197838720"/>
+        <c:crossAx val="225154560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Win Rates'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Win Rates'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Win Rates'!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.49940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49230000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56130000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55889999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62960000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58289999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63429999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62949999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63290000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61629999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61839999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.61470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.61370000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.61880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.6048</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.62250000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.60060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.60899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.60829999999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.60750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.60699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.6028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.62639999999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.60619999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.59540000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.59799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.59570000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.59450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.59150000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.5837</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.59379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.58709999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.59260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.58620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.59319999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.58409999999999995</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.56920000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.57730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.57240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.5736</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.57099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.57010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.57979999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.56789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.55600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.56979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.56089999999999995</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.55679999999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.56100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.55310000000000004</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.55210000000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54559999999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.54079999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.5423</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.53990000000000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.53049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.53349999999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.53200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.52890000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.51859999999999995</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.53359999999999996</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.5232</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.52029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.52270000000000005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.5151</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.50770000000000004</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.52490000000000003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.50839999999999996</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.5111</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.50090000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.50990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.50470000000000004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.49980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.49609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.49430000000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.4864</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.49409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.47889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.48099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.47949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.47960000000000003</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.46960000000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.47310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.4723</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.47099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.45519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.45300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.45219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.45319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.45519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.45519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.44340000000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.43969999999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.43709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.43559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.43709999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Win Rates'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Win Rates'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Win Rates'!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.48549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50980000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58020000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64039999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66769999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6603</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65039999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.63619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.64270000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.63819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.63270000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.65849999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.64600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.64390000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.6341</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.62219999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.63849999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.63919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.62339999999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.63560000000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.61580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.61429999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.6079</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.623</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.62019999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.61680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.61770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.62129999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.61029999999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.61029999999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.60370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.60670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.61339999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.59450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.59770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.60160000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.60529999999999995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.60209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.58650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.59360000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.58509999999999995</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.58860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.58460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.58550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.58489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.58079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.57010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.57399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.56810000000000005</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.57130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56089999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.55789999999999995</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.55569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.55649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.55030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.55249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.55389999999999995</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.55149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.54700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.54239999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.53069999999999995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.53680000000000005</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.53400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.5262</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.51829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.51900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.50690000000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.52300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.51859999999999995</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.50870000000000004</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.51160000000000005</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.50749999999999995</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.50749999999999995</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.4945</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.50319999999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.49180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.4985</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.49569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.49049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.48709999999999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.47989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.47749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.48270000000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.46629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.46750000000000003</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.46460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.46010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.4647</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.46060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.44309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.44640000000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.43459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.44800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.4415</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Win Rates'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Win Rates'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Win Rates'!$D$2:$D$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.43790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65610000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65780000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68310000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66990000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65980000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.67490000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68069999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6673</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67190000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.63990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67190000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.65939999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.65559999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65139999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65680000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.65790000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.6633</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.63500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.64470000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.64329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.63460000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.63039999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.63129999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.63060000000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.62480000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.6159</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.63580000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.62939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.62880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61439999999999995</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.62280000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.626</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.61370000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.61650000000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.60580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.62039999999999995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.6038</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.60240000000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.59740000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.59019999999999995</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.60970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.59830000000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.59460000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.60680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.58589999999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.58209999999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.58720000000000006</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.58479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57040000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57220000000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.57840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.57230000000000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.56559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.56969999999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.57020000000000004</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.5585</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.55689999999999995</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.56240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.55430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.54830000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.54579999999999995</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.54169999999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.54100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.53559999999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.53469999999999995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.52790000000000004</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.51680000000000004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.52910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.52829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.5171</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.50819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.50880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.499</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.50109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.48859999999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.49199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.48330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.49320000000000003</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.48249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.46560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.4718</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.47439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.4698</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.46910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.46329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.46279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.45760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.4451</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.4471</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.43940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.43009999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Win Rates'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Win Rates'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Win Rates'!$E$2:$E$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.39850000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68920000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70309999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69230000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70589999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.67969999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6845</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67820000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.68789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.68440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.68330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.67320000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.67449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.67569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.65539999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.66149999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.65159999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.6643</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.66290000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.66539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.65669999999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.6492</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.65759999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.64780000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6502</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.65049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.64400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.63839999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.64790000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63739999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.63729999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.62719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.627</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.627</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.62180000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.62450000000000006</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.626</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.61939999999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.61360000000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.61699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.61499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.61629999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.60919999999999996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.58879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.5988</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.59840000000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.59370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.57399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.59050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.56820000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.58509999999999995</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.56110000000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.56479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.56120000000000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.56220000000000003</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.55430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.55049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.5454</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.54500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.53369999999999995</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.53549999999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.53620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.52549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.52339999999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.52110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.51300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.5111</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.49559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.50470000000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.49890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.48499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.49209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.49609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.4793</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.47739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.47339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.46899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.46970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.46750000000000003</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.45540000000000003</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.45379999999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.44059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.43840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.43230000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Win Rates'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>160k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Win Rates'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Win Rates'!$F$2:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.39419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70740000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70020000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68930000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.68630000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.69620000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.69079999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69820000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.69340000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.69620000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.67879999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.67530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.66759999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.6835</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.66830000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.66639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.66539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.67290000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.65839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.66049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.65180000000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.65800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6613</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.65610000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.65080000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64790000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.64239999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.64200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.6421</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.64649999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.6421</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.64029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.64290000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.63090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.62670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.63070000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.62070000000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.62329999999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.61680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.62050000000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.60880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.60619999999999996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.60470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.60009999999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.59550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.59160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.60680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59650000000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.57979999999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.58069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.57589999999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.57320000000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.56030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.55630000000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.56820000000000004</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.56359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.5605</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.55820000000000003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.55479999999999996</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.53639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.54520000000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.54220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.53710000000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.53669999999999995</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.5242</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.5171</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.51629999999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.51519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.51219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.49490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.49230000000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.49209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.4854</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.4919</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.48409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.47160000000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.4738</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.46529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.4617</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.47189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.46179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.4556</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.44059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.44550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.44319999999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.43990000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Win Rates'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>320k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Win Rates'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Win Rates'!$G$2:$G$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.50190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71530000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6895</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71220000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69910000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.68969999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.71079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6946</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70820000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.70650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.69640000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.68049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.69550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.69389999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.69399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.68500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.67859999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.68020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.67649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.66220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.67269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65659999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.67049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.65959999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.65510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.65459999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.65369999999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64859999999999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.65390000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.6603</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.64659999999999995</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.64670000000000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.64039999999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.64319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.6331</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.63639999999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.62590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.63200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.63929999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.623</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.61550000000000005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.61839999999999995</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.61839999999999995</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.61960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.62050000000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.61150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.5978</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.60340000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.6038</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.59830000000000005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59650000000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.59019999999999995</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.5837</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.58460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.56989999999999996</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.57340000000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.56069999999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.56599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.55559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.55800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.54990000000000006</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.55620000000000003</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.54349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.54330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.5454</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.53900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.53069999999999995</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.53180000000000005</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.52029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.52180000000000004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.51790000000000003</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.51700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.50939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.49259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.50580000000000003</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.48549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.49080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.48849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.47770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.47699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.47149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.46760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.46960000000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.45369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.45190000000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.4531</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.4456</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.4425</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.43669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.43740000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Win Rates'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>640k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Win Rates'!$H$2:$H$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.37709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71589999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73360000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7167</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71309999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.70760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.69889999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.71230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.69830000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.6986</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.69610000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.67320000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.68979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.69320000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.67889999999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.68620000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.66510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.67789999999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.67679999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.68100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.67420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.66359999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.67830000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.65700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.67130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.65049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.6573</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.65449999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.6623</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.64400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.63109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.63529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.63600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.63360000000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.63300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.62980000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.62809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.61850000000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.627</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.6129</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.62090000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.61480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.62009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.60860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.61250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.59089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.59740000000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.59450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.58689999999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.57630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.57150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.58879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.57330000000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.57789999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.5696</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.57199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.56469999999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.55779999999999996</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.55630000000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.55520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.55410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.5444</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.53769999999999996</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.54749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.54210000000000003</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.53069999999999995</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.53180000000000005</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.52859999999999996</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.52410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.51500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.50949999999999995</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.50209999999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.50329999999999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.50460000000000005</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.49030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.49609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.49109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.48659999999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.47689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.4718</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.4803</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.47220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.4652</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.45229999999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.45129999999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.4481</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.43359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.44529999999999997</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.43919999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Win Rates'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1280k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Win Rates'!$I$2:$I$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.47149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73060000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71030000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.71189999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70630000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.70820000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7026</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.69069999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69320000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.71240000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.68030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.69010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.69030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.69189999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.67910000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.67379999999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.68059999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.67330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.67249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.67549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.67720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.6653</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.65949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6663</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.65529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.65080000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.65739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.65049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.6492</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.65400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.65129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.65210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.63880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.64549999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.63319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.62580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.63319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.62909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.62629999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.62050000000000005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.61680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.60719999999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.61209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.60899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.61439999999999995</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.61029999999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.60189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.60389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.59150000000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.5877</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.58289999999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.58450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.57920000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.58260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.58079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.57830000000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.57030000000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.5655</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.56140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.55110000000000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.56389999999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.55230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.56089999999999995</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.53990000000000005</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.55589999999999995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.5292</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.53090000000000004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.53139999999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.53290000000000004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.52610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.51790000000000003</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.51729999999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.5151</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.50290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.50049999999999994</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.50370000000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.50239999999999996</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.48849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.48530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.48770000000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.48420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.47549999999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.46939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.48049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.47260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.4622</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.45779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.44650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.4496</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.43159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.44869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.43969999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="198781952"/>
+        <c:axId val="198812416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="198781952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="198812416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:tickMarkSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="198812416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="198781952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9431,6 +14036,43 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
@@ -12736,6 +17378,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
